--- a/target/test-classes/testdata/testdata.xlsx
+++ b/target/test-classes/testdata/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\QA_TUTORIAL\eclipse\TestAutomationFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF69B7F-524C-4791-8F46-C8BCDB4D6562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19441DDF-5FDB-4B59-94A7-AD769CBD28F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -39,22 +39,31 @@
     <t>Aa12345678</t>
   </si>
   <si>
-    <t>pehhtr@ad.ri</t>
-  </si>
-  <si>
     <t>erkejan.amanjolovna@gmail.com</t>
   </si>
   <si>
     <t>Qwerty123</t>
   </si>
   <si>
-    <t>g1391081@gmail.com</t>
+    <t>vohar48086@dacgu.com</t>
   </si>
   <si>
     <t>wafoh44582@dovesilo.com</t>
   </si>
   <si>
-    <t>vohar48086@dacgu.com</t>
+    <t>Aa123456$</t>
+  </si>
+  <si>
+    <t>furkan.fishel@floodouts.com</t>
+  </si>
+  <si>
+    <t>nathaniel.craig@floodouts.com</t>
+  </si>
+  <si>
+    <t>caedmon.berrin@frontbridges.com</t>
+  </si>
+  <si>
+    <t>Aa123456#</t>
   </si>
 </sst>
 </file>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,7 +420,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -419,24 +428,24 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -444,26 +453,41 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{663E5037-7D82-432D-B77D-D999157661E0}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{BE5DB875-0F7C-4332-9981-334636FC197D}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{DD0D6AE2-0C0C-4520-9B5B-54C747BA4607}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{19AFC360-D31F-4A71-8AE8-218DC4B53117}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{492B41E0-0981-4F7D-86E8-7199A89C30A6}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{F0FC02A6-72BC-47A0-BCFC-71383F58D947}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{69CD0C45-A542-45FF-81D3-08602EBCAA2F}"/>
+    <hyperlink ref="A2" r:id="rId6" xr:uid="{AA21BCB7-D883-4E33-A455-1794B910D56D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>